--- a/Downer/25324/res.xlsx
+++ b/Downer/25324/res.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\25324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9483571-BF81-4819-A786-DB36F28C32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C7463-06A8-469C-AC1B-C8B429550DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="2490" windowWidth="28545" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="2790" windowWidth="28545" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$R$932</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="415">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +60,1227 @@
   </si>
   <si>
     <t>template name</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Subbase - Rev E</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0f5e5930-b295-4394-bef5-bf0647e45f2a</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>SECTION 3 – PRE-CONSTRUCTION (P&amp;G / ESTABLISHMENT) - 3.01 Site Requirements</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>3.01.01 - Construction Pack</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Construction Pack including a Methodology and JESA to be assembled , uploaded and transmitted on InEight before works commence</t>
+  </si>
+  <si>
+    <t>Standard / Specification - Downer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Construction Pack</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Works start</t>
+  </si>
+  <si>
+    <t>Activity - H</t>
+  </si>
+  <si>
+    <t>By - PE</t>
+  </si>
+  <si>
+    <t>3.01.02 - Survey Setout</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Survey Set out as per contract drawings and specification, capturing pre-construction levels where needed.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Survey Records</t>
+  </si>
+  <si>
+    <t>By - SV</t>
+  </si>
+  <si>
+    <t>3.01.03 - Service Location</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Complete the Excavation permit process to identify, locate and protect all services.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Excavation Permit</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Excavation</t>
+  </si>
+  <si>
+    <t>By - SE</t>
+  </si>
+  <si>
+    <t>3.01.04 - Internal Permits</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Complete internal Permits as required to complete works including but not limited to: Hot works, concrete saw, lift, confined space, working at height etc. if applicable.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Internal Permits</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to activity being undertaken</t>
+  </si>
+  <si>
+    <t>3.01.05 - External Permits</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Obtain External Permits as required to complete works including but not limited to: Close approach, Worksafe Notice etc, if applicable.</t>
+  </si>
+  <si>
+    <t>Verifying Document - External Permits</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to commencment of activity</t>
+  </si>
+  <si>
+    <t>3.01.06 - Approved Construction Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Prior to starting works, Ensure that the construction drawings are both IFC and the Current Version.</t>
+  </si>
+  <si>
+    <t>Verifying Document - IFC Drawings</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to works start</t>
+  </si>
+  <si>
+    <t>3.01.07 - Stabilising Methodology</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Written approval of the Engineer with the approval of the methodology</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.3.3</t>
+  </si>
+  <si>
+    <t>Verifying Document - Correspondence</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to stabilisation start</t>
+  </si>
+  <si>
+    <t>Activity - HP</t>
+  </si>
+  <si>
+    <t>By - ENG</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>3.01.08 - Acceptance of the SIL layer</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Written approval of the Engineer - All compliant test results for subgrade, SIL, all road crossings, storm water, wastewater, watermain, subsoil/pavement drains and any other activity that has been completed in the pavement area.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 4.8.3, Table 4.3</t>
+  </si>
+  <si>
+    <t>Verifying Document - Hold point relesed / Testing reports</t>
+  </si>
+  <si>
+    <t>Frequency - All sections before proceeding to the next layer</t>
+  </si>
+  <si>
+    <t>SECTION 2 – MATERIAL, PERSONNEL &amp; THIRD PARTY APPROVAL - PAVEMENT AND SURFACING - 5.01 General Materials</t>
+  </si>
+  <si>
+    <t>5.01.01 - Sampling and testing</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - For all aggregates, test information confirming compliance shall be supplied to the Engineer not less than five working days prior to delivery of the material to site.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.2.4</t>
+  </si>
+  <si>
+    <t>Verifying Document - IANZ Lab Reports</t>
+  </si>
+  <si>
+    <t>Frequency - five working days prior to delivery of the material to site.</t>
+  </si>
+  <si>
+    <t>5.01.02 - Sampling and testing</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Water to be used in stabilisation - The Contractor shall be responsible for ensuring that the water for stabilisation, construction and curing of stabilised layers is free from impurities that may deleteriously affect the setting, hardening, strength or durability of the bound aggregate layer.</t>
+  </si>
+  <si>
+    <t>• Water from sources other than public supply may have its suitability established to the satisfaction of the Engineer by repeating the final approved laboratory based mix design tests with the water now being considered for use.</t>
+  </si>
+  <si>
+    <t>• The results of these subsequent mix verification tests shall be greater than 90% of the final results from the previously verified mix design. In addition, work shall be stopped if any discolouration or residue is observed when adding or sprinkling water into or onto the material.”</t>
+  </si>
+  <si>
+    <t>• Verifying documents to be dockets from fill up station, or proof of using public water supply. Or Lab reports for alternative supply.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZTA B/6 item 5</t>
+  </si>
+  <si>
+    <t>Verifying Document - Lab reports</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Works start, per source</t>
+  </si>
+  <si>
+    <t>SECTION 2 – MATERIAL, PERSONNEL &amp; THIRD PARTY APPROVAL - PAVEMENT AND SURFACING - 5.02 Sub-base aggregate</t>
+  </si>
+  <si>
+    <t>5.02.01 - Sub-base MDD and OMC</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Maximum Dry Density (MDD) for construction shall be the maximum laboratory dry density at optimum water content (OWC).</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 7.5 NZS 4402:1986 - 4.1.3</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test per material type</t>
+  </si>
+  <si>
+    <t>5.02.02 - Cement for sub-base stabilisation</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Cement for stabilisation shall meet the requirements of NZTA B6.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.3.2, PS - 7.2.6</t>
+  </si>
+  <si>
+    <t>Verifying Document - Datasheets</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Use</t>
+  </si>
+  <si>
+    <t>5.02.05 - Crushing Resistance</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The crushing resistance shall not be less than 130kN when the aggregate is tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407: 1991 Test 3.10.</t>
+  </si>
+  <si>
+    <t>Frequency - 2 tests per source 4 weeks before use in the works</t>
+  </si>
+  <si>
+    <t>5.02.06 - Weathering Resistance</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The aggregate shall have a quality index of AA, AB, AC, BA, or CA when tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407: 1991 Test 3.11</t>
+  </si>
+  <si>
+    <t>5.02.07 - Particle size distribution</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The grading of the aggregate shall fall within the envelopes defined in the Table No. 7.1.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407: 1991 Test 3.8.1 Standard Method by Wet Sieving</t>
+  </si>
+  <si>
+    <t>Frequency - 0 to 400m³ - 2 tests</t>
+  </si>
+  <si>
+    <t>• 400 to 1,500m³ - 3 tests</t>
+  </si>
+  <si>
+    <t>• 1,500 to 4,000m³ - 4 tests</t>
+  </si>
+  <si>
+    <t>• &gt;4,000m³ - 1 test for each additional 1,000m³</t>
+  </si>
+  <si>
+    <t>5.02.08 - Sand Equivalent</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The sand equivalent shall not be less than 25 when the aggregate is tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407: 1991 Test 3.6 (Wet Method)</t>
+  </si>
+  <si>
+    <t>5.02.09 - Liquid Limit</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unless the grading test shows &lt;4% passing the 75-micron sieve, the Liquid Limit shall be ≤ 25 when tested - The LL may also be inferred (where appropriate) from the Cone Penetrometer Limit (CPL).</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4402 Test 2.2, NZS4407:2015 Test 3.2.</t>
+  </si>
+  <si>
+    <t>5.02.10 - Plasticity Index</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unless the grading test shows &lt;4% passing the 75-micron sieve, the Plasticity Index shall be ≤ 8 when tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407 Test 3.4</t>
+  </si>
+  <si>
+    <t>5.02.11 - Clay Index</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unless the grading test shows &lt;4% passing the 75-micron sieve, the Clay Index shall be ≤ 5 when tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407 Test 3.5</t>
+  </si>
+  <si>
+    <t>5.02.12 - Proportion of Broken Rock</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - In each of the aggregate fractions between the 63.0mm and 4.75mm sieves not less than 50% by weight shall have two or more broken faces</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.2.2</t>
+  </si>
+  <si>
+    <t>Frequency - 1 Test per source of the coarse aggregate. Additional samples if source is changed</t>
+  </si>
+  <si>
+    <t>5.02.13 - Organic Matter</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - It shall be free of organic matter</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos</t>
+  </si>
+  <si>
+    <t>Frequency - Continuous</t>
+  </si>
+  <si>
+    <t>Activity - I</t>
+  </si>
+  <si>
+    <t>By - SE/PE</t>
+  </si>
+  <si>
+    <t>5.02.14 - Accelerated Weathering Testing</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - If the difference between the tested sample and the control is &gt;30% in the accelerated weathering test, the Contractor shall undertake additional x-ray diffraction analysis</t>
+  </si>
+  <si>
+    <t>• The levels of smectite clay minerals are not classified as “abundant”</t>
+  </si>
+  <si>
+    <t>Standard / Specification - In accordance with NZTA Standard Specification T20 Draft Specification</t>
+  </si>
+  <si>
+    <t>Verifying Document - Lab Reports</t>
+  </si>
+  <si>
+    <t>Frequency - 2 tests per source 4 weeks before use in the works.</t>
+  </si>
+  <si>
+    <t>5.02.15 - Repeat Load Triaxial Test</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - In accordance with NZTA T15</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZTA T15</t>
+  </si>
+  <si>
+    <t>5.02.16 - Unconfined Compressive Strength (UCS)</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unconfined Compressive Strength (UCS) testing of source aggregate for modified layers to test sensitivity to additives.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - Table No. 7.2</t>
+  </si>
+  <si>
+    <t>Frequency - 1 set of tests per stockpile at source. Set of tests to include proposed mix plus tests with 0.5% more and 0.5% less additive than proposed.</t>
+  </si>
+  <si>
+    <t>5.02.17 - Indirect Tensile Strength (ITS)</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - In accordance with draft NZTA T/19 at the rate specified in Table A7.4 using 4.0%, 4.5% and 5.0% cement (with 7 days curing) and results forwarded to the Engineer not less than 7 Working Days prior to construction for confirmation or adjustment of the additive contents.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZTA T/19 - Table A7.4</t>
+  </si>
+  <si>
+    <t>SECTION 6 – CONSTRUCTION ACTIVITY – PAVEMENT AND SURFACING - 6.02 Sub-base - Non stabilised AP65</t>
+  </si>
+  <si>
+    <t>6.02.01 - Sub-base MDD and OMC</t>
+  </si>
+  <si>
+    <t>Frequency - No less than 1 test every 5,000m³ (in place)</t>
+  </si>
+  <si>
+    <t>Activity - R</t>
+  </si>
+  <si>
+    <t>6.02.02 - Plasticity Index</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unless the grading test shows &lt;4% passing the 75-micron sieve, the Liquid Limit shall be ≤ 25 when tested</t>
+  </si>
+  <si>
+    <t>Standard / Specification - Table 7.2</t>
+  </si>
+  <si>
+    <t>Frequency - 2 tests per 1000m3 (in place) - Test on Mat Samples</t>
+  </si>
+  <si>
+    <t>6.02.03 - Clay Index</t>
+  </si>
+  <si>
+    <t>6.02.04 - Sand Equivalent</t>
+  </si>
+  <si>
+    <t>6.02.05 - Particle size distribution</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The grading of the aggregate shall fall within the envelopes defined in the Table No. 7.1</t>
+  </si>
+  <si>
+    <t>Standard / Specification - Table 7.1</t>
+  </si>
+  <si>
+    <t>6.02.06 - Average Uncompacted Layer Thickness</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The average uncompacted thickness of any layer shall not be less than 2.5 times the maximum particle size of the aggregate except for tapers and more than 200 mm for the basecourse layer.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 7.3</t>
+  </si>
+  <si>
+    <t>Verifying Document - Survey / Level Checks</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test per 20m</t>
+  </si>
+  <si>
+    <t>By - SV / PE</t>
+  </si>
+  <si>
+    <t>6.02.07 - Plateau Density Test</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The plateau density tests shall be undertaken at a rate of 5 tests per 10,000m2 using a variety of compaction plant typical of that to be used on site.</t>
+  </si>
+  <si>
+    <t>• Testing shall be at OWC.</t>
+  </si>
+  <si>
+    <t>• First plateau test to be completed at the start of compaction, and highest out of plateau and lab MDD shall be used for compaction testing.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - Table 7.2 - 2.3</t>
+  </si>
+  <si>
+    <t>Verifying Document - Plateau Density Report</t>
+  </si>
+  <si>
+    <t>Frequency - 5 tests per 10,000m2</t>
+  </si>
+  <si>
+    <t>6.02.08 - Sub-basecourse Pavement Layer Compaction</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Mean Value ≥ 95 Minimum Value ≥ 92</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005</t>
+  </si>
+  <si>
+    <t>Verifying Document - NDM Report</t>
+  </si>
+  <si>
+    <t>Frequency - Min 5 Tests per lot 1000m2 max lot size</t>
+  </si>
+  <si>
+    <t>6.02.09 - Surface shape control</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Width: -20mm +100mm (Unconstrained)</t>
+  </si>
+  <si>
+    <t>• Vertical: - 25mm +5mm</t>
+  </si>
+  <si>
+    <t>• Cross fall: 0.5% on 2m straight edge</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/2</t>
+  </si>
+  <si>
+    <t>Verifying Document - Total station Topo showing levels compared to design</t>
+  </si>
+  <si>
+    <t>SECTION 6 – CONSTRUCTION ACTIVITY – PAVEMENT AND SURFACING - 6.03 Sub-base Stabilisation trial</t>
+  </si>
+  <si>
+    <t>6.03.01 - Stabilization Production Plan</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Production plan sent to engineer for review 48 hours prior to stabilising commencing. This is to include all information set out in NZTA B/6 7.2.3.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZTA B/6 7.2.3</t>
+  </si>
+  <si>
+    <t>Frequency - 48H hours prior sabilising commencing</t>
+  </si>
+  <si>
+    <t>6.03.02 - Longitudinal Joints</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - To ensure complete stabilisation across the full width of the road, longitudinal joints between successive cuts shall overlap by a minimum of 200 mm or half the layer thickness, whichever is the greater.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZTA B/6 7.5.2</t>
+  </si>
+  <si>
+    <t>Verifying Document - Stabilisation Prodution Plan</t>
+  </si>
+  <si>
+    <t>6.03.03 - Stabilisation trial</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - A trial shall be conducted on a minimum stabilised area of 2,000m2 to verify the performance of the stabilising operation and finished product prior to full scale production.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Triall Report</t>
+  </si>
+  <si>
+    <t>Frequency - prior to full scale production</t>
+  </si>
+  <si>
+    <t>6.03.04 - Stabilising Equipment</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Contractor shall use stabilising plant purpose built and appropriately adjusted for the in-situ stabilisation of roading aggregates, as opposed to plant designed for soil stabilisation or re-cycling.</t>
+  </si>
+  <si>
+    <t>• The stabiliser drum shall have a straight tooth pattern and the drum speed must be adjustable in real time during stabilisation.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.3.2</t>
+  </si>
+  <si>
+    <t>Verifying Document - Plant Approval</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to works</t>
+  </si>
+  <si>
+    <t>6.03.05 - Stabilising Supervisor</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - During stabilisation the Contractor shall employ a suitably experienced person to continuously walk behind the stabiliser to assess the uniformity of the mixture and water distribution and to check the stabilisation depth every 100m.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Supervisor Approval</t>
+  </si>
+  <si>
+    <t>6.03.06 - Before Stabilisation Surface shape control, layer thickness</t>
+  </si>
+  <si>
+    <t>6.03.07 - Average Uncompacted Layer Thickness</t>
+  </si>
+  <si>
+    <t>6.03.08 - Pre Stabilisation Compaction</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The full thickness of the layer to be modified shall be compacted between Value ≥ 95% and Minimum Value ≥ 90% Prior to stabilisation, this will be reviewed following the stabilising trial and adjusted to suit and the updated target shall be added after the stabilising trail. DN1205-DOW-RFI-0043.01</t>
+  </si>
+  <si>
+    <t>Verifying Document - IANZ NDMS</t>
+  </si>
+  <si>
+    <t>Frequency - Min 5 Tests per lot 1000m2 max lot size (Prior to stabilisation)</t>
+  </si>
+  <si>
+    <t>6.03.09 - Pre Stabilisation Crossfall</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Before stabilisation the Contractor shall check the crossfall by string line to confirm compliance with the design.</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test per 20m Prior to stabilisation</t>
+  </si>
+  <si>
+    <t>6.03.10 - Stabilising Visual appearance</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The stabiliser shall produce a uniform particle size distribution behind the stabiliser, both laterally, vertically and longitudinally and produce minimal break down of the coarse aggregate particles during mixing.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Site Notes</t>
+  </si>
+  <si>
+    <t>Frequency - every 100m</t>
+  </si>
+  <si>
+    <t>6.03.11 - Cement Mat Test / Spread Rate</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The stabilising agent shall be uniformly spread at the specified application rate across the pavement to Within ±0.5 kg/m2 of the specified rate</t>
+  </si>
+  <si>
+    <t>Verifying Document - Stab. Sheet</t>
+  </si>
+  <si>
+    <t>Frequency - One per each run of cement spreading, until the Contractor can demonstrate consistency in cement spreading and/or demonstrate accuracy of on-board computer equipment calibrated/compared against weighing cement mats.</t>
+  </si>
+  <si>
+    <t>• Upon successful demonstration of this, the 1 per 500m2 minimum can applya</t>
+  </si>
+  <si>
+    <t>6.03.12 - Cement Average usage test</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Compare tonnes used (from delivery docket) with measured area Within ±2.5 % of the specified rate</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B6</t>
+  </si>
+  <si>
+    <t>Verifying Document - Stab. Sheet / Delivery Doc.</t>
+  </si>
+  <si>
+    <t>Frequency - Upon emptying the spreader and bulk tanker</t>
+  </si>
+  <si>
+    <t>6.03.13 - Control of cut depth</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Maximum variation from the specified depth of cut is –5 mm and +15 mm. Without picking up sand from SIL</t>
+  </si>
+  <si>
+    <t>Frequency - First check of cut depth should be immediately behind the stabiliser at the start of each run, then again every 200m, or as requested by the Engineer</t>
+  </si>
+  <si>
+    <t>6.03.14 - Plateau Density Test</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - Table 7.2 - 2.4</t>
+  </si>
+  <si>
+    <t>6.03.15 - Particle size distribution behind stabilizer (Wet Sieve)</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The grading of the aggregate shall fall within the envelopes defined in the Table No. 7.1. A Wet sieve analysis will be completed within 4 hours after stabilizing</t>
+  </si>
+  <si>
+    <t>Frequency - 3 samples bag per stabilise day post hoe</t>
+  </si>
+  <si>
+    <t>6.03.16 - Mixed material testing (ITS)</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - During mixing, the contractor shall take a pair of representative samples behind the mixing plant per lot or at a minimum of 2 pairs of representative samples per day.</t>
+  </si>
+  <si>
+    <t>• These samples shall be placed in a sealed plastic bag and cured for 1 hour before compacting into a mould and testing the indirect tensile strength (ITS) of the mixed material according to NZTA T/19</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B6 7.5</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Results</t>
+  </si>
+  <si>
+    <t>Frequency - 2 tests per stabilise day</t>
+  </si>
+  <si>
+    <t>6.03.17 - NDM Water correction</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Daily Laboratory water content tests shall be carried out on samples taken and used to correct the NDM measured dry density.</t>
+  </si>
+  <si>
+    <t>• Will get the Moisture correction factor from the Plateau report itself. That is the difference between the Moisture reading on the NDM vs the actual moisture when dried in the oven.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4407</t>
+  </si>
+  <si>
+    <t>Verifying Document - Corrected NDM Results</t>
+  </si>
+  <si>
+    <t>Frequency - Per Stabilise day</t>
+  </si>
+  <si>
+    <t>6.03.18 - Post Stabilisation Compaction Using Highest MDD from Lab or Plateau Testing</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The sub-base compaction requirements in Table 2 of B/6 shall be replaced with a Mean Value ≥ 98% and Minimum Value ≥ 95%. - Direct Transmission</t>
+  </si>
+  <si>
+    <t>Frequency - Min 5 Tests per lot 1000m2, minimum 7 days after stab.</t>
+  </si>
+  <si>
+    <t>6.03.19 - Post Stabilisation Surface shape control, layer thickness</t>
+  </si>
+  <si>
+    <t>• Vertical: - 5mm +10mm</t>
+  </si>
+  <si>
+    <t>6.03.20 - Protection, Curing and Maintenance before Overlaying</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Contractor shall protect, maintain and cure the completed cement bound sub-base until the next layer is applied. Besides construction traffic required for the above curing no other construction traffic shall be permitted onto the layer within 7 days of stabilisation</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B6 - 7.8</t>
+  </si>
+  <si>
+    <t>Frequency - For 7 days after stabilisation / Photos</t>
+  </si>
+  <si>
+    <t>6.03.21 - Benkelman Beam</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Benkelman Beam test results shall be reported to the Engineer to verify that that the sub-base stiffness meets the requirements of the pavement design, before proceeding with the next layer.</t>
+  </si>
+  <si>
+    <t>• Benkelman Beam testing shall be completed no sooner than 7 days after stabilisation. The rate of testing is specified in Table A7.3. - INFORMATION ONLY</t>
+  </si>
+  <si>
+    <t>Verifying Document - Benkelman Beam Report</t>
+  </si>
+  <si>
+    <t>Frequency - Every 10m of each lane – staggered between left and right wheel path.</t>
+  </si>
+  <si>
+    <t>6.03.22 - MDD / OMC / SD</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Post hoe, stabilised MDD, OMC, and SD. 1 test per 2000m² or a days work whichever gives the greater number of testing.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - NZS 4402:1986, Test 4.1.3</t>
+  </si>
+  <si>
+    <t>Verifying Document - Lab Report</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test per 2000m² or a days work whichever gives the greater number of testing.</t>
+  </si>
+  <si>
+    <t>6.03.23 - Sub-base stabilisation trial</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - After the sub-base stabilisation trial, prior to proceeding with further stabilisation.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 2.2.16</t>
+  </si>
+  <si>
+    <t>Verifying Document - Hold Point Release</t>
+  </si>
+  <si>
+    <t>Frequency - Min 48h Notice</t>
+  </si>
+  <si>
+    <t>SECTION 6 – CONSTRUCTION ACTIVITY – PAVEMENT AND SURFACING - 6.04 Stabilised sub-base</t>
+  </si>
+  <si>
+    <t>6.04.01 - Stabilization Production Plan</t>
+  </si>
+  <si>
+    <t>6.04.02 - Longitudinal Joints</t>
+  </si>
+  <si>
+    <t>6.04.03 - Stabilising Equipment</t>
+  </si>
+  <si>
+    <t>6.04.04 - Stabilising Supervisor</t>
+  </si>
+  <si>
+    <t>6.04.05 - Before Stabilisation Surface shape control, layer thickness</t>
+  </si>
+  <si>
+    <t>Verifying Document - String sheet</t>
+  </si>
+  <si>
+    <t>6.04.06 - Average Uncompacted Layer Thickness</t>
+  </si>
+  <si>
+    <t>6.04.07 - Pre Stabilisation Compaction</t>
+  </si>
+  <si>
+    <t>6.04.08 - Pre Stabilisation Crossfall</t>
+  </si>
+  <si>
+    <t>6.04.09 - Stabilising Visual appearance</t>
+  </si>
+  <si>
+    <t>6.04.10 - Cement Mat Test</t>
+  </si>
+  <si>
+    <t>• Upon successful demonstration of this, the 1 per 500m2 minimum can apply</t>
+  </si>
+  <si>
+    <t>6.04.11 - Cement Average usage test</t>
+  </si>
+  <si>
+    <t>6.04.12 - Maintain OMC during stabilising</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The water content during compaction shall be in the range of 90% to 100% of the material’s optimum water content by NDM</t>
+  </si>
+  <si>
+    <t>6.04.13 - Control of cut depth</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Maximum variation from the specified depth of cut is –5 mm and +15 mm.</t>
+  </si>
+  <si>
+    <t>6.04.14 - Mixed material testing (ITS)</t>
+  </si>
+  <si>
+    <t>Frequency - 2 pairs of representative samples per day</t>
+  </si>
+  <si>
+    <t>6.04.15 - Particle size distribution behind stabilizer (Wet Sieve)</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - A Wet sieve analysis will be completed within 4 hours after stabilizing, and consist of a minimum of 3 sample bags per lot.</t>
+  </si>
+  <si>
+    <t>Frequency - 3 sample bags per lot.</t>
+  </si>
+  <si>
+    <t>6.04.16 - Plateau Density Test</t>
+  </si>
+  <si>
+    <t>6.04.17 - Post Stabilisation Compaction Using Highest MDD from Lab or Plateau Testing</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The sub-base compaction requirements in Table 2 of B/6 shall be replaced with a Mean Value ≥ 98% and Minimum Value ≥ 95%. - Direct transmission</t>
+  </si>
+  <si>
+    <t>6.04.18 - NDM Water correction</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Daily Laboratory water content tests shall be carried out on samples taken and used to correct the NDM measured dry density</t>
+  </si>
+  <si>
+    <t>6.04.19 - Post Stabilisation Surface shape control, layer thickness</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B6 8.2</t>
+  </si>
+  <si>
+    <t>6.04.20 - Protection, Curing and Maintenance before Overlaying</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Contractor shall protect, maintain and cure the completed cement bound sub-base until the next layer is applied.</t>
+  </si>
+  <si>
+    <t>• Besides construction traffic required for the above curing no other construction traffic shall be permitted onto the layer within 7 days of stabilisation</t>
+  </si>
+  <si>
+    <t>Verifying Document - Site Notes with photos</t>
+  </si>
+  <si>
+    <t>Frequency - For 7 days after stabilisation</t>
+  </si>
+  <si>
+    <t>6.04.21 - Benkelman Beam</t>
+  </si>
+  <si>
+    <t>6.04.22 - MDD / OMC / SD</t>
+  </si>
+  <si>
+    <t>SECTION 7 – POST CONSTRUCTION (FINAL INSPECTION AND HANDOVER) - 7.02 Site Post Construction Activities</t>
+  </si>
+  <si>
+    <t>7.02.01 - Redline Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Create a set of Redline Drawings for Asbuilt creation noting all changes and departures in red pen mark up showing lot numbers and areas stabilised in different days including clear delineation of all joins.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Redlines</t>
+  </si>
+  <si>
+    <t>Frequency - Post construction</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>33752cb8-b125-4be2-a64d-64570c780a4a</t>
+  </si>
+  <si>
+    <t>SECTION 1 – PRE-CONSTRUCTION (P&amp;G / ESTABLISHMENT)</t>
+  </si>
+  <si>
+    <t>1.01.01 - Construction Pack</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Construction Pack including a Methodology and JESA to be assembled, uploaded and transmitted on InEight before works commence</t>
+  </si>
+  <si>
+    <t>1.01.02 - Survey Setout</t>
+  </si>
+  <si>
+    <t>1.01.03 - Service Location</t>
+  </si>
+  <si>
+    <t>1.01.04 - Internal Permits</t>
+  </si>
+  <si>
+    <t>1.01.05 - External Permits</t>
+  </si>
+  <si>
+    <t>1.01.06 - Approved Construction Drawings</t>
+  </si>
+  <si>
+    <t>1.01.07 - Subbase Approval</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - All subbase QA to be sent to Engineer for review 48 hours prior to placing basecourse. Final inspection of subbase required, looking for any cracks in stabilised pavement and pavement is clean, free of and contamination</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - Page 42</t>
+  </si>
+  <si>
+    <t>Verifying Document - ConQA</t>
+  </si>
+  <si>
+    <t>Frequency - Before proceeding to the next layer</t>
+  </si>
+  <si>
+    <t>SECTION 2 – MATERIAL, PERSONNEL &amp; THIRD PARTY APPROVAL - PAVEMENT AND SURFACING</t>
+  </si>
+  <si>
+    <t>2.01.01 - Basecourse CBR</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - (a) compacted in accordance with NZS 4402 : 1986, Test 4.1.3 New Zealand Vibrating Hammer Compaction Test at Optimum Water Content and;</t>
+  </si>
+  <si>
+    <t>(b) tested in accordance with NZS 4407 : 1991, Test 3.15 The California Bearing Ratio Test (without a surcharge for at least 4 days). The soaked CBR of the basecourse aggregate shall not be less than 80%.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ M/4: 2006</t>
+  </si>
+  <si>
+    <t>Frequency - 10,000m3</t>
+  </si>
+  <si>
+    <t>2.01.02 - Running Course Material Approval</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The running course shall have a crushing resistance of not less than 130 kN when tested in accordance with NZS 4407: 1991, Crushing Resistance Test, Test 3.10. It shall be free from all non-mineral matter.</t>
+  </si>
+  <si>
+    <t>• The grading of the running course shall conform with Figure 3 of TNZ B/2:2005, 10.2, when tested in the same manner as required for the parent basecourse. (IF USED)</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 10.2</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test every stockpile</t>
+  </si>
+  <si>
+    <t>2.01.03 - Basecourse MDD and OMC</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Maximum Dry Density (MDD) for construction shall be the maximum laboratory dry density at optimum water content (OWC). Test on heavy compaction, vibrating hammer.</t>
+  </si>
+  <si>
+    <t>2.01.04 - Crushing Resistance</t>
+  </si>
+  <si>
+    <t>2.01.05 - Weathering Resistance</t>
+  </si>
+  <si>
+    <t>2.01.06 - Particle Size Distribution</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The grading of the aggregate shall fall within the envelopes defined in the Table No. 2 and 3 from TNZ M/4:2006.</t>
+  </si>
+  <si>
+    <t>2.01.07 - Sand Equivalent</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The sand equivalent shall not be less than 40 when the aggregate is tested according to NZS 4407 : 1991, Test 3.6 Sand Equivalent Test.</t>
+  </si>
+  <si>
+    <t>• If Sand Equivalence is &lt; 40, then Clay Index shall not be &gt; 3 and Plasticity Index shall not be &gt; 5 (both being tested in accordance with the methods described above).</t>
+  </si>
+  <si>
+    <t>• The Sand Equivalent shall be determined using the Wet Method in NZS 4407: 1991 Test 3.6</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ M/4: 2006, 4.2.1.1</t>
+  </si>
+  <si>
+    <t>2.01.08 - Liquid Limit</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Liquid Limit shall be ≤ 25 when tested in accordance with NZS 4402 Test 2.2.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - PS - 7.2.3</t>
+  </si>
+  <si>
+    <t>2.01.09 - Plasticity Index</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Plasticity Index shall be ≤ 8 when tested in accordance with NZS 4407 Test 3.4</t>
+  </si>
+  <si>
+    <t>2.01.10 - Clay Index</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Clay Index shall be ≤ 5 when tested in accordance with NZS 4407 Test 3.5.</t>
+  </si>
+  <si>
+    <t>2.01.11 - Accelerated Weathering Testing</t>
+  </si>
+  <si>
+    <t>2.01.12 - Repeat Load Triaxial Test</t>
+  </si>
+  <si>
+    <t>2.01.13 - Broken Face Content</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The aggregate broken face content in each of the three aggregate fractions between the 37.5mm and 4.75mm sieves shall not be less than 70% by weight and shall have two or more broken faces, when tested according to NZS 4407: 1991, Test 3.14 Broken Face Test.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ M/4: 2006, 4.2.2</t>
+  </si>
+  <si>
+    <t>Frequency - 1 Test per Source</t>
+  </si>
+  <si>
+    <t>SECTION 3 – CONSTRUCTION ACTIVITY – PAVEMENT AND SURFACING</t>
+  </si>
+  <si>
+    <t>3.01.01 - Average Uncompacted Layer Thickness</t>
+  </si>
+  <si>
+    <t>3.01.02 - Basecourse MDD and OMC</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The Maximum Dry Density (MDD) for construction shall be the maximum laboratory dry density at optimum water content (OWC). Test to be at heavy compaction vibrating hammer, Test on Mat Samples on site.</t>
+  </si>
+  <si>
+    <t>3.01.03 - Plateau Density Test</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The plateau density tests shall be undertaken at a rate of 5 tests per 10,000m2 using a variety of compaction plant typical of that to be used on site. Testing shall be at OWC.</t>
+  </si>
+  <si>
+    <t>• Every plateau to be completed at start of works and witnessed by a member of BBO.</t>
+  </si>
+  <si>
+    <t>3.01.04 - Plasticity Index</t>
+  </si>
+  <si>
+    <t>Frequency - 2 tests per 1000m3 (in place)</t>
+  </si>
+  <si>
+    <t>3.01.05 - Clay Index</t>
+  </si>
+  <si>
+    <t>3.01.06 - Sand Equivalent</t>
+  </si>
+  <si>
+    <t>3.01.07 - Particle size distribution</t>
+  </si>
+  <si>
+    <t>3.01.08 - Basecourse Pavement Layer Compaction</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Mean Value ≥ 98 Minimum Value ≥ 95, Backscatter.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 7.6</t>
+  </si>
+  <si>
+    <t>3.01.09 - Surface Shape</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The standard of smoothness shall be such that there is no point in the surface that varies more than 10 mm from a 3 m straight edge placed on the road and any deviation from the straight edge is gradual..</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 7.7</t>
+  </si>
+  <si>
+    <t>Verifying Document - Survey / Straight edge Report</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to sealing</t>
+  </si>
+  <si>
+    <t>3.01.10 - Holding Water</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - No area of the completed surface shall have any depression that will allow water to pond where lateral or longitudinal fall is greater than 1%</t>
+  </si>
+  <si>
+    <t>Verifying Document - Visual Inspection / Site Note</t>
+  </si>
+  <si>
+    <t>3.01.11 - Maximum Width Variation</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Unconstrained : –20 mm +100 mm</t>
+  </si>
+  <si>
+    <t>• Constrained : Zero</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 5.1</t>
+  </si>
+  <si>
+    <t>Frequency - Before Next layer or Surfacing</t>
+  </si>
+  <si>
+    <t>3.01.12 - Maximum Vertical Basecourse With Concrete Channel Variation</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - At or close to the lip of channel: –5 mm +5 mm</t>
+  </si>
+  <si>
+    <t>• At other locations on pavement: –5 mm +15 mm</t>
+  </si>
+  <si>
+    <t>Frequency - Before Surfacing</t>
+  </si>
+  <si>
+    <t>3.01.13 - Maximum Crossfall Variation</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The crossfall between any two points more than 2m apart, transverse to the centreline, shall not depart from the crossfall shown in the documents by more than 0.5%</t>
+  </si>
+  <si>
+    <t>3.01.14 - Benkelman Beam</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Benkelman Beam test results shall be reported to the Engineer to verify that that the sub-base stiffness meets the requirements of the pavement design, before proceeding with the next layer. Benkelman Beam testing shall be completed no sooner than 7 days after stabilisation. The rate of testing is specified in Table A7.3. - INFORMATION ONLY</t>
+  </si>
+  <si>
+    <t>Frequency - every 10m of each lane – staggered between left and right wheel path.</t>
+  </si>
+  <si>
+    <t>3.01.15 - NAASRA roughness</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The longitudinal smoothness of the final surfacing layer shall comply with the maximum NAASRA roughness value detailed in the specific contract requirements. (Recommended but not required)</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Report</t>
+  </si>
+  <si>
+    <t>3.01.16 - Running Course</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - If running course is used it shall be spread uniformly over the pavement surface and maintained until removed. During working hours traffic shall be channelised by suitably defined traffic lanes with frequent transverse shifts of the defined lanes to obtain an even spread of traffic over the entire surface.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 10.1</t>
+  </si>
+  <si>
+    <t>Activity - S</t>
+  </si>
+  <si>
+    <t>By - SUP</t>
+  </si>
+  <si>
+    <t>3.01.17 - Surface Finish post sweeping</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - The basecourse surface finish, as distinct from the surface shape, shall present a tightly consolidated surface when swept.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005 - 7.8</t>
+  </si>
+  <si>
+    <t>3.01.18 - Tie in into Existing Pavement</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Where tapering of basecourse including finishing layer aggregate is necessary to provide a smooth transition from the new surface to an existing surface, placement of the basecourse or finishing layer shall be stopped at the minimum uncompacted thickness specified in clause 7.3(a).</t>
+  </si>
+  <si>
+    <t>• The Contractor shall then saw cut the existing seal at the tie-in (end of taper), remove existing pavement material and replace it with approved basecourse to an average uncompacted thickness of greater than 2.5 times the maximum particle size of the basecourse used.</t>
+  </si>
+  <si>
+    <t>Standard / Specification - TNZ B/02: 2005, 7.4</t>
+  </si>
+  <si>
+    <t>Verifying Document - photos, and survey data of undercut</t>
+  </si>
+  <si>
+    <t>Frequency - Every tying into existing pavements</t>
+  </si>
+  <si>
+    <t>SECTION 4 – POST CONSTRUCTION (FINAL INSPECTION AND HANDOVER)</t>
+  </si>
+  <si>
+    <t>4.01.01 - Survey Records</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Ensure all items have been surveyed and record.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Records</t>
+  </si>
+  <si>
+    <t>4.01.02 - Redline Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance / Conformance Criteria - Create a set of Redline Drawings for Asbuilt creation noting all changes and departures in red pen.</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - AP65 Material - Rev E</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - AP40 Material - Rev 1</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Basecourse - Rev 1</t>
   </si>
 </sst>
 </file>
@@ -189,7 +1423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +1603,34 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,8 +1792,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,20 +2154,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="B694" sqref="B694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="141.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="209.140625" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,8 +2193,7740 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>301</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>301</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>301</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>301</v>
+      </c>
+      <c r="B129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>301</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>301</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>301</v>
+      </c>
+      <c r="B157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>301</v>
+      </c>
+      <c r="B158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>301</v>
+      </c>
+      <c r="B159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>301</v>
+      </c>
+      <c r="B164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>301</v>
+      </c>
+      <c r="B165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>301</v>
+      </c>
+      <c r="B166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>301</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>301</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B170" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>301</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>301</v>
+      </c>
+      <c r="B174" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>301</v>
+      </c>
+      <c r="B175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>301</v>
+      </c>
+      <c r="B176" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>301</v>
+      </c>
+      <c r="B177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>301</v>
+      </c>
+      <c r="B179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>301</v>
+      </c>
+      <c r="B180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>301</v>
+      </c>
+      <c r="B181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>301</v>
+      </c>
+      <c r="B182" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>301</v>
+      </c>
+      <c r="B184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>301</v>
+      </c>
+      <c r="B186" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>301</v>
+      </c>
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>301</v>
+      </c>
+      <c r="B188" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>301</v>
+      </c>
+      <c r="B189" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>301</v>
+      </c>
+      <c r="B190" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>301</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>301</v>
+      </c>
+      <c r="B193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>301</v>
+      </c>
+      <c r="B194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>301</v>
+      </c>
+      <c r="B195" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>301</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>301</v>
+      </c>
+      <c r="B197" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>301</v>
+      </c>
+      <c r="B198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>301</v>
+      </c>
+      <c r="B201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>301</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>301</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>301</v>
+      </c>
+      <c r="B205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>301</v>
+      </c>
+      <c r="B207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>301</v>
+      </c>
+      <c r="B208" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>301</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>301</v>
+      </c>
+      <c r="B210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>301</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>301</v>
+      </c>
+      <c r="B212" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>301</v>
+      </c>
+      <c r="B213" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>301</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>301</v>
+      </c>
+      <c r="B216" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>301</v>
+      </c>
+      <c r="B217" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>301</v>
+      </c>
+      <c r="B218" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>301</v>
+      </c>
+      <c r="B219" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>301</v>
+      </c>
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>301</v>
+      </c>
+      <c r="B222" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>301</v>
+      </c>
+      <c r="B223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>301</v>
+      </c>
+      <c r="B224" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>301</v>
+      </c>
+      <c r="B225" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>301</v>
+      </c>
+      <c r="B226" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>301</v>
+      </c>
+      <c r="B227" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>301</v>
+      </c>
+      <c r="B229" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>301</v>
+      </c>
+      <c r="B230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>301</v>
+      </c>
+      <c r="B231" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>301</v>
+      </c>
+      <c r="B232" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>301</v>
+      </c>
+      <c r="B233" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>301</v>
+      </c>
+      <c r="B234" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>301</v>
+      </c>
+      <c r="B235" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>301</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>301</v>
+      </c>
+      <c r="B238" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>301</v>
+      </c>
+      <c r="B239" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>301</v>
+      </c>
+      <c r="B240" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>301</v>
+      </c>
+      <c r="B241" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>301</v>
+      </c>
+      <c r="B242" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>301</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>301</v>
+      </c>
+      <c r="B245" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>301</v>
+      </c>
+      <c r="B246" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>301</v>
+      </c>
+      <c r="B247" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>301</v>
+      </c>
+      <c r="B248" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>301</v>
+      </c>
+      <c r="B249" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>301</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>301</v>
+      </c>
+      <c r="B251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>301</v>
+      </c>
+      <c r="B253" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>301</v>
+      </c>
+      <c r="B254" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>301</v>
+      </c>
+      <c r="B255" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>301</v>
+      </c>
+      <c r="B256" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>301</v>
+      </c>
+      <c r="B257" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>301</v>
+      </c>
+      <c r="B258" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>301</v>
+      </c>
+      <c r="B259" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B261" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>301</v>
+      </c>
+      <c r="B262" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>301</v>
+      </c>
+      <c r="B263" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>301</v>
+      </c>
+      <c r="B264" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>301</v>
+      </c>
+      <c r="B265" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>301</v>
+      </c>
+      <c r="B266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>301</v>
+      </c>
+      <c r="B268" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>301</v>
+      </c>
+      <c r="B269" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>301</v>
+      </c>
+      <c r="B270" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>301</v>
+      </c>
+      <c r="B271" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>301</v>
+      </c>
+      <c r="B272" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>301</v>
+      </c>
+      <c r="B273" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>301</v>
+      </c>
+      <c r="B274" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>301</v>
+      </c>
+      <c r="B275" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>301</v>
+      </c>
+      <c r="B277" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>301</v>
+      </c>
+      <c r="B278" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>301</v>
+      </c>
+      <c r="B279" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>301</v>
+      </c>
+      <c r="B280" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>301</v>
+      </c>
+      <c r="B281" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>301</v>
+      </c>
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>301</v>
+      </c>
+      <c r="B284" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>301</v>
+      </c>
+      <c r="B285" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>301</v>
+      </c>
+      <c r="B286" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>301</v>
+      </c>
+      <c r="B287" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>301</v>
+      </c>
+      <c r="B288" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>301</v>
+      </c>
+      <c r="B289" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>301</v>
+      </c>
+      <c r="B290" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>301</v>
+      </c>
+      <c r="B292" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>301</v>
+      </c>
+      <c r="B297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>301</v>
+      </c>
+      <c r="B308" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>301</v>
+      </c>
+      <c r="B309" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>301</v>
+      </c>
+      <c r="B310" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>301</v>
+      </c>
+      <c r="B311" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>301</v>
+      </c>
+      <c r="B312" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>301</v>
+      </c>
+      <c r="B313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>301</v>
+      </c>
+      <c r="B316" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>301</v>
+      </c>
+      <c r="B317" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>301</v>
+      </c>
+      <c r="B318" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>301</v>
+      </c>
+      <c r="B319" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>301</v>
+      </c>
+      <c r="B320" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>301</v>
+      </c>
+      <c r="B321" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>301</v>
+      </c>
+      <c r="B323" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>301</v>
+      </c>
+      <c r="B324" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>301</v>
+      </c>
+      <c r="B325" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>301</v>
+      </c>
+      <c r="B326" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>301</v>
+      </c>
+      <c r="B327" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>301</v>
+      </c>
+      <c r="B328" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>301</v>
+      </c>
+      <c r="B329" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>301</v>
+      </c>
+      <c r="B331" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>301</v>
+      </c>
+      <c r="B332" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>301</v>
+      </c>
+      <c r="B333" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>301</v>
+      </c>
+      <c r="B334" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>301</v>
+      </c>
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>301</v>
+      </c>
+      <c r="B336" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>301</v>
+      </c>
+      <c r="B338" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>301</v>
+      </c>
+      <c r="B339" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>301</v>
+      </c>
+      <c r="B340" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>301</v>
+      </c>
+      <c r="B341" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>301</v>
+      </c>
+      <c r="B342" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>301</v>
+      </c>
+      <c r="B343" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>301</v>
+      </c>
+      <c r="B344" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>301</v>
+      </c>
+      <c r="B345" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>301</v>
+      </c>
+      <c r="B347" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>301</v>
+      </c>
+      <c r="B348" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>301</v>
+      </c>
+      <c r="B349" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>301</v>
+      </c>
+      <c r="B350" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>301</v>
+      </c>
+      <c r="B351" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>301</v>
+      </c>
+      <c r="B352" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>301</v>
+      </c>
+      <c r="B354" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>301</v>
+      </c>
+      <c r="B355" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>301</v>
+      </c>
+      <c r="B356" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>301</v>
+      </c>
+      <c r="B357" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>301</v>
+      </c>
+      <c r="B358" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>301</v>
+      </c>
+      <c r="B359" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>301</v>
+      </c>
+      <c r="B361" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>301</v>
+      </c>
+      <c r="B362" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>301</v>
+      </c>
+      <c r="B363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>301</v>
+      </c>
+      <c r="B364" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>301</v>
+      </c>
+      <c r="B365" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>301</v>
+      </c>
+      <c r="B366" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>301</v>
+      </c>
+      <c r="B368" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>301</v>
+      </c>
+      <c r="B369" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>301</v>
+      </c>
+      <c r="B370" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>301</v>
+      </c>
+      <c r="B371" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>301</v>
+      </c>
+      <c r="B372" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>301</v>
+      </c>
+      <c r="B373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>301</v>
+      </c>
+      <c r="B375" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>301</v>
+      </c>
+      <c r="B376" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>301</v>
+      </c>
+      <c r="B377" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>301</v>
+      </c>
+      <c r="B378" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>301</v>
+      </c>
+      <c r="B379" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>301</v>
+      </c>
+      <c r="B380" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>301</v>
+      </c>
+      <c r="B381" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>301</v>
+      </c>
+      <c r="B383" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>301</v>
+      </c>
+      <c r="B384" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>301</v>
+      </c>
+      <c r="B385" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>301</v>
+      </c>
+      <c r="B386" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>301</v>
+      </c>
+      <c r="B387" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>301</v>
+      </c>
+      <c r="B388" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>301</v>
+      </c>
+      <c r="B390" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>301</v>
+      </c>
+      <c r="B391" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>301</v>
+      </c>
+      <c r="B392" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>301</v>
+      </c>
+      <c r="B393" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>301</v>
+      </c>
+      <c r="B394" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>301</v>
+      </c>
+      <c r="B395" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>301</v>
+      </c>
+      <c r="B397" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>301</v>
+      </c>
+      <c r="B398" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>301</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>301</v>
+      </c>
+      <c r="B400" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>301</v>
+      </c>
+      <c r="B401" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>301</v>
+      </c>
+      <c r="B402" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>301</v>
+      </c>
+      <c r="B404" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>301</v>
+      </c>
+      <c r="B405" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>301</v>
+      </c>
+      <c r="B406" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>301</v>
+      </c>
+      <c r="B407" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>301</v>
+      </c>
+      <c r="B408" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>301</v>
+      </c>
+      <c r="B409" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>301</v>
+      </c>
+      <c r="B410" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>301</v>
+      </c>
+      <c r="B412" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>301</v>
+      </c>
+      <c r="B413" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>301</v>
+      </c>
+      <c r="B414" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>301</v>
+      </c>
+      <c r="B415" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>301</v>
+      </c>
+      <c r="B416" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>301</v>
+      </c>
+      <c r="B417" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>301</v>
+      </c>
+      <c r="B419" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>301</v>
+      </c>
+      <c r="B420" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>301</v>
+      </c>
+      <c r="B421" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>301</v>
+      </c>
+      <c r="B422" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>301</v>
+      </c>
+      <c r="B423" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>301</v>
+      </c>
+      <c r="B424" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>301</v>
+      </c>
+      <c r="B425" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>301</v>
+      </c>
+      <c r="B426" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>301</v>
+      </c>
+      <c r="B428" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>301</v>
+      </c>
+      <c r="B429" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>301</v>
+      </c>
+      <c r="B430" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>301</v>
+      </c>
+      <c r="B431" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>301</v>
+      </c>
+      <c r="B432" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>301</v>
+      </c>
+      <c r="B433" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>301</v>
+      </c>
+      <c r="B435" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>301</v>
+      </c>
+      <c r="B436" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>301</v>
+      </c>
+      <c r="B437" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>301</v>
+      </c>
+      <c r="B438" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>301</v>
+      </c>
+      <c r="B439" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>301</v>
+      </c>
+      <c r="B440" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>301</v>
+      </c>
+      <c r="B442" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>301</v>
+      </c>
+      <c r="B443" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>301</v>
+      </c>
+      <c r="B444" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>301</v>
+      </c>
+      <c r="B445" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>301</v>
+      </c>
+      <c r="B446" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>301</v>
+      </c>
+      <c r="B447" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>301</v>
+      </c>
+      <c r="B448" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>301</v>
+      </c>
+      <c r="B449" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>301</v>
+      </c>
+      <c r="B451" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>301</v>
+      </c>
+      <c r="B452" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>301</v>
+      </c>
+      <c r="B453" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>301</v>
+      </c>
+      <c r="B454" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>301</v>
+      </c>
+      <c r="B455" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>301</v>
+      </c>
+      <c r="B456" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>301</v>
+      </c>
+      <c r="B457" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>301</v>
+      </c>
+      <c r="B459" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>301</v>
+      </c>
+      <c r="B460" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>301</v>
+      </c>
+      <c r="B461" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>301</v>
+      </c>
+      <c r="B462" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>301</v>
+      </c>
+      <c r="B463" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>301</v>
+      </c>
+      <c r="B464" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>301</v>
+      </c>
+      <c r="B465" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>301</v>
+      </c>
+      <c r="B468" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>301</v>
+      </c>
+      <c r="B469" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>301</v>
+      </c>
+      <c r="B470" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>301</v>
+      </c>
+      <c r="B471" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>301</v>
+      </c>
+      <c r="B472" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>301</v>
+      </c>
+      <c r="B473" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>301</v>
+      </c>
+      <c r="B476" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>301</v>
+      </c>
+      <c r="B477" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>301</v>
+      </c>
+      <c r="B478" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>301</v>
+      </c>
+      <c r="B479" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>301</v>
+      </c>
+      <c r="B480" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>301</v>
+      </c>
+      <c r="B481" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+      <c r="G483" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H483" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>301</v>
+      </c>
+      <c r="B486" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>301</v>
+      </c>
+      <c r="B487" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>301</v>
+      </c>
+      <c r="B488" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>301</v>
+      </c>
+      <c r="B489" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>301</v>
+      </c>
+      <c r="B490" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>301</v>
+      </c>
+      <c r="B491" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>301</v>
+      </c>
+      <c r="B493" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>301</v>
+      </c>
+      <c r="B494" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>301</v>
+      </c>
+      <c r="B495" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>301</v>
+      </c>
+      <c r="B496" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>301</v>
+      </c>
+      <c r="B497" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>301</v>
+      </c>
+      <c r="B498" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>301</v>
+      </c>
+      <c r="B500" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>301</v>
+      </c>
+      <c r="B501" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>301</v>
+      </c>
+      <c r="B502" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>301</v>
+      </c>
+      <c r="B503" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>301</v>
+      </c>
+      <c r="B504" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>301</v>
+      </c>
+      <c r="B505" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>301</v>
+      </c>
+      <c r="B507" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>301</v>
+      </c>
+      <c r="B508" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>301</v>
+      </c>
+      <c r="B509" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>301</v>
+      </c>
+      <c r="B510" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>301</v>
+      </c>
+      <c r="B511" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>301</v>
+      </c>
+      <c r="B512" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>301</v>
+      </c>
+      <c r="B514" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>301</v>
+      </c>
+      <c r="B515" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>301</v>
+      </c>
+      <c r="B516" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>301</v>
+      </c>
+      <c r="B517" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>301</v>
+      </c>
+      <c r="B518" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>301</v>
+      </c>
+      <c r="B519" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>301</v>
+      </c>
+      <c r="B521" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>301</v>
+      </c>
+      <c r="B522" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>301</v>
+      </c>
+      <c r="B523" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>301</v>
+      </c>
+      <c r="B524" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>301</v>
+      </c>
+      <c r="B525" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>301</v>
+      </c>
+      <c r="B526" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>301</v>
+      </c>
+      <c r="B528" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>301</v>
+      </c>
+      <c r="B529" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>301</v>
+      </c>
+      <c r="B530" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>301</v>
+      </c>
+      <c r="B531" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>301</v>
+      </c>
+      <c r="B532" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>301</v>
+      </c>
+      <c r="B533" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>301</v>
+      </c>
+      <c r="B537" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>301</v>
+      </c>
+      <c r="B538" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>301</v>
+      </c>
+      <c r="B539" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>301</v>
+      </c>
+      <c r="B540" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>301</v>
+      </c>
+      <c r="B541" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>301</v>
+      </c>
+      <c r="B542" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>301</v>
+      </c>
+      <c r="B544" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>301</v>
+      </c>
+      <c r="B545" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>301</v>
+      </c>
+      <c r="B546" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>301</v>
+      </c>
+      <c r="B547" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>301</v>
+      </c>
+      <c r="B548" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>301</v>
+      </c>
+      <c r="B549" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>301</v>
+      </c>
+      <c r="B551" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>301</v>
+      </c>
+      <c r="B552" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>301</v>
+      </c>
+      <c r="B553" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>301</v>
+      </c>
+      <c r="B554" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>301</v>
+      </c>
+      <c r="B555" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>301</v>
+      </c>
+      <c r="B556" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>301</v>
+      </c>
+      <c r="B557" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>301</v>
+      </c>
+      <c r="B559" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>301</v>
+      </c>
+      <c r="B560" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>301</v>
+      </c>
+      <c r="B561" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>301</v>
+      </c>
+      <c r="B562" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>301</v>
+      </c>
+      <c r="B563" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>301</v>
+      </c>
+      <c r="B564" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>301</v>
+      </c>
+      <c r="B566" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>301</v>
+      </c>
+      <c r="B567" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>301</v>
+      </c>
+      <c r="B568" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>301</v>
+      </c>
+      <c r="B569" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>301</v>
+      </c>
+      <c r="B570" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>301</v>
+      </c>
+      <c r="B571" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>301</v>
+      </c>
+      <c r="B573" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>301</v>
+      </c>
+      <c r="B574" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>301</v>
+      </c>
+      <c r="B575" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>301</v>
+      </c>
+      <c r="B576" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>301</v>
+      </c>
+      <c r="B577" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>301</v>
+      </c>
+      <c r="B578" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>301</v>
+      </c>
+      <c r="B579" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>301</v>
+      </c>
+      <c r="B580" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>301</v>
+      </c>
+      <c r="B582" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>301</v>
+      </c>
+      <c r="B583" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>301</v>
+      </c>
+      <c r="B584" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>301</v>
+      </c>
+      <c r="B585" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>301</v>
+      </c>
+      <c r="B586" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>301</v>
+      </c>
+      <c r="B587" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>301</v>
+      </c>
+      <c r="B589" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>301</v>
+      </c>
+      <c r="B590" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>301</v>
+      </c>
+      <c r="B591" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>301</v>
+      </c>
+      <c r="B592" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>301</v>
+      </c>
+      <c r="B593" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>301</v>
+      </c>
+      <c r="B594" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>301</v>
+      </c>
+      <c r="B596" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>301</v>
+      </c>
+      <c r="B597" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>301</v>
+      </c>
+      <c r="B598" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>301</v>
+      </c>
+      <c r="B599" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>301</v>
+      </c>
+      <c r="B600" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>301</v>
+      </c>
+      <c r="B601" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>301</v>
+      </c>
+      <c r="B603" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>301</v>
+      </c>
+      <c r="B604" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>301</v>
+      </c>
+      <c r="B605" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>301</v>
+      </c>
+      <c r="B606" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>301</v>
+      </c>
+      <c r="B607" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>301</v>
+      </c>
+      <c r="B608" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>301</v>
+      </c>
+      <c r="B610" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>301</v>
+      </c>
+      <c r="B611" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>301</v>
+      </c>
+      <c r="B612" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>301</v>
+      </c>
+      <c r="B613" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>301</v>
+      </c>
+      <c r="B614" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>301</v>
+      </c>
+      <c r="B615" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>301</v>
+      </c>
+      <c r="B616" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>301</v>
+      </c>
+      <c r="B618" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>301</v>
+      </c>
+      <c r="B619" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>301</v>
+      </c>
+      <c r="B620" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>301</v>
+      </c>
+      <c r="B621" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>301</v>
+      </c>
+      <c r="B622" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>301</v>
+      </c>
+      <c r="B623" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>301</v>
+      </c>
+      <c r="B624" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>301</v>
+      </c>
+      <c r="B626" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>301</v>
+      </c>
+      <c r="B627" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>301</v>
+      </c>
+      <c r="B628" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>301</v>
+      </c>
+      <c r="B629" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>301</v>
+      </c>
+      <c r="B630" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>301</v>
+      </c>
+      <c r="B631" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>301</v>
+      </c>
+      <c r="B633" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>301</v>
+      </c>
+      <c r="B634" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>301</v>
+      </c>
+      <c r="B635" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>301</v>
+      </c>
+      <c r="B636" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>301</v>
+      </c>
+      <c r="B637" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>301</v>
+      </c>
+      <c r="B638" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>301</v>
+      </c>
+      <c r="B640" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>301</v>
+      </c>
+      <c r="B641" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>301</v>
+      </c>
+      <c r="B642" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>301</v>
+      </c>
+      <c r="B643" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>301</v>
+      </c>
+      <c r="B644" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>301</v>
+      </c>
+      <c r="B645" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>301</v>
+      </c>
+      <c r="B647" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>301</v>
+      </c>
+      <c r="B648" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>301</v>
+      </c>
+      <c r="B649" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>301</v>
+      </c>
+      <c r="B650" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>301</v>
+      </c>
+      <c r="B651" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>301</v>
+      </c>
+      <c r="B652" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>301</v>
+      </c>
+      <c r="B654" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>301</v>
+      </c>
+      <c r="B655" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>301</v>
+      </c>
+      <c r="B656" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>301</v>
+      </c>
+      <c r="B657" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>301</v>
+      </c>
+      <c r="B658" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>301</v>
+      </c>
+      <c r="B659" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>301</v>
+      </c>
+      <c r="B661" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>301</v>
+      </c>
+      <c r="B662" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>301</v>
+      </c>
+      <c r="B663" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>301</v>
+      </c>
+      <c r="B664" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>301</v>
+      </c>
+      <c r="B665" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>301</v>
+      </c>
+      <c r="B666" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>301</v>
+      </c>
+      <c r="B667" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>301</v>
+      </c>
+      <c r="B670" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>301</v>
+      </c>
+      <c r="B671" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>301</v>
+      </c>
+      <c r="B672" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>301</v>
+      </c>
+      <c r="B673" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>301</v>
+      </c>
+      <c r="B674" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>301</v>
+      </c>
+      <c r="B675" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>301</v>
+      </c>
+      <c r="B677" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>301</v>
+      </c>
+      <c r="B678" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>301</v>
+      </c>
+      <c r="B679" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>301</v>
+      </c>
+      <c r="B680" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>301</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>301</v>
+      </c>
+      <c r="B682" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A684" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D684" s="5"/>
+      <c r="E684" s="5"/>
+      <c r="F684" s="5"/>
+      <c r="G684" s="5"/>
+      <c r="H684" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I684" s="5"/>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>301</v>
+      </c>
+      <c r="B687" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>301</v>
+      </c>
+      <c r="B688" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>301</v>
+      </c>
+      <c r="B689" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>301</v>
+      </c>
+      <c r="B690" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>301</v>
+      </c>
+      <c r="B691" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>301</v>
+      </c>
+      <c r="B692" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>301</v>
+      </c>
+      <c r="B693" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>301</v>
+      </c>
+      <c r="B696" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>301</v>
+      </c>
+      <c r="B697" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>301</v>
+      </c>
+      <c r="B698" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>301</v>
+      </c>
+      <c r="B699" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>301</v>
+      </c>
+      <c r="B700" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>301</v>
+      </c>
+      <c r="B701" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>301</v>
+      </c>
+      <c r="B702" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>301</v>
+      </c>
+      <c r="B705" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>301</v>
+      </c>
+      <c r="B706" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>301</v>
+      </c>
+      <c r="B707" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>301</v>
+      </c>
+      <c r="B708" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>301</v>
+      </c>
+      <c r="B709" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>301</v>
+      </c>
+      <c r="B710" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>301</v>
+      </c>
+      <c r="B712" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>301</v>
+      </c>
+      <c r="B713" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>301</v>
+      </c>
+      <c r="B714" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>301</v>
+      </c>
+      <c r="B715" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>301</v>
+      </c>
+      <c r="B716" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>301</v>
+      </c>
+      <c r="B717" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>301</v>
+      </c>
+      <c r="B720" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>301</v>
+      </c>
+      <c r="B721" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>301</v>
+      </c>
+      <c r="B722" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>301</v>
+      </c>
+      <c r="B723" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>301</v>
+      </c>
+      <c r="B724" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>301</v>
+      </c>
+      <c r="B725" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>301</v>
+      </c>
+      <c r="B728" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>301</v>
+      </c>
+      <c r="B729" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>301</v>
+      </c>
+      <c r="B730" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>301</v>
+      </c>
+      <c r="B731" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>301</v>
+      </c>
+      <c r="B732" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>301</v>
+      </c>
+      <c r="B733" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>301</v>
+      </c>
+      <c r="B734" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>301</v>
+      </c>
+      <c r="B735" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>301</v>
+      </c>
+      <c r="B736" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>301</v>
+      </c>
+      <c r="B739" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>301</v>
+      </c>
+      <c r="B740" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>301</v>
+      </c>
+      <c r="B741" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>301</v>
+      </c>
+      <c r="B742" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>301</v>
+      </c>
+      <c r="B743" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>301</v>
+      </c>
+      <c r="B744" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>301</v>
+      </c>
+      <c r="B745" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>301</v>
+      </c>
+      <c r="B746" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>301</v>
+      </c>
+      <c r="B747" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>301</v>
+      </c>
+      <c r="B748" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>301</v>
+      </c>
+      <c r="B749" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>301</v>
+      </c>
+      <c r="B752" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>301</v>
+      </c>
+      <c r="B753" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>301</v>
+      </c>
+      <c r="B754" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>301</v>
+      </c>
+      <c r="B755" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>301</v>
+      </c>
+      <c r="B756" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>301</v>
+      </c>
+      <c r="B757" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>301</v>
+      </c>
+      <c r="B758" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>301</v>
+      </c>
+      <c r="B759" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>301</v>
+      </c>
+      <c r="B760" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>301</v>
+      </c>
+      <c r="B763" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>301</v>
+      </c>
+      <c r="B764" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>301</v>
+      </c>
+      <c r="B765" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>301</v>
+      </c>
+      <c r="B766" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>301</v>
+      </c>
+      <c r="B767" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>301</v>
+      </c>
+      <c r="B768" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>301</v>
+      </c>
+      <c r="B769" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>301</v>
+      </c>
+      <c r="B770" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>301</v>
+      </c>
+      <c r="B771" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>301</v>
+      </c>
+      <c r="B774" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>301</v>
+      </c>
+      <c r="B775" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>301</v>
+      </c>
+      <c r="B776" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>301</v>
+      </c>
+      <c r="B777" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>301</v>
+      </c>
+      <c r="B778" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>301</v>
+      </c>
+      <c r="B779" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>301</v>
+      </c>
+      <c r="B780" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>301</v>
+      </c>
+      <c r="B781" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>301</v>
+      </c>
+      <c r="B782" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>301</v>
+      </c>
+      <c r="B785" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>301</v>
+      </c>
+      <c r="B786" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>301</v>
+      </c>
+      <c r="B787" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>301</v>
+      </c>
+      <c r="B788" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>301</v>
+      </c>
+      <c r="B789" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>301</v>
+      </c>
+      <c r="B790" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>301</v>
+      </c>
+      <c r="B791" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>301</v>
+      </c>
+      <c r="B794" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>301</v>
+      </c>
+      <c r="B795" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>301</v>
+      </c>
+      <c r="B796" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>301</v>
+      </c>
+      <c r="B797" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>301</v>
+      </c>
+      <c r="B798" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>301</v>
+      </c>
+      <c r="B799" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>301</v>
+      </c>
+      <c r="B802" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>301</v>
+      </c>
+      <c r="B803" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>301</v>
+      </c>
+      <c r="B804" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>301</v>
+      </c>
+      <c r="B805" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>301</v>
+      </c>
+      <c r="B806" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>301</v>
+      </c>
+      <c r="B807" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A808" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A810" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D810" s="5"/>
+      <c r="E810" s="5"/>
+      <c r="F810" s="5"/>
+      <c r="G810" s="5"/>
+      <c r="H810" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I810" s="5"/>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A812" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>301</v>
+      </c>
+      <c r="B813" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>301</v>
+      </c>
+      <c r="B814" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>301</v>
+      </c>
+      <c r="B815" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>301</v>
+      </c>
+      <c r="B816" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>301</v>
+      </c>
+      <c r="B817" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>301</v>
+      </c>
+      <c r="B818" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>301</v>
+      </c>
+      <c r="B821" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>301</v>
+      </c>
+      <c r="B822" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>301</v>
+      </c>
+      <c r="B823" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>301</v>
+      </c>
+      <c r="B824" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>301</v>
+      </c>
+      <c r="B825" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>301</v>
+      </c>
+      <c r="B826" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>301</v>
+      </c>
+      <c r="B827" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>301</v>
+      </c>
+      <c r="B828" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>301</v>
+      </c>
+      <c r="B829" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>301</v>
+      </c>
+      <c r="B833" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>301</v>
+      </c>
+      <c r="B834" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>301</v>
+      </c>
+      <c r="B835" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>301</v>
+      </c>
+      <c r="B836" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>301</v>
+      </c>
+      <c r="B837" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>301</v>
+      </c>
+      <c r="B838" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>301</v>
+      </c>
+      <c r="B840" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>301</v>
+      </c>
+      <c r="B841" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>301</v>
+      </c>
+      <c r="B842" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>301</v>
+      </c>
+      <c r="B843" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>301</v>
+      </c>
+      <c r="B844" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>301</v>
+      </c>
+      <c r="B845" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>301</v>
+      </c>
+      <c r="B847" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>301</v>
+      </c>
+      <c r="B848" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>301</v>
+      </c>
+      <c r="B849" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>301</v>
+      </c>
+      <c r="B850" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>301</v>
+      </c>
+      <c r="B851" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>301</v>
+      </c>
+      <c r="B852" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>301</v>
+      </c>
+      <c r="B855" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>301</v>
+      </c>
+      <c r="B856" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>301</v>
+      </c>
+      <c r="B857" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>301</v>
+      </c>
+      <c r="B858" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>301</v>
+      </c>
+      <c r="B859" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>301</v>
+      </c>
+      <c r="B860" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>301</v>
+      </c>
+      <c r="B863" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>301</v>
+      </c>
+      <c r="B864" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>301</v>
+      </c>
+      <c r="B865" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>301</v>
+      </c>
+      <c r="B866" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>301</v>
+      </c>
+      <c r="B867" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>301</v>
+      </c>
+      <c r="B868" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>301</v>
+      </c>
+      <c r="B869" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>301</v>
+      </c>
+      <c r="B870" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>301</v>
+      </c>
+      <c r="B871" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>301</v>
+      </c>
+      <c r="B874" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>301</v>
+      </c>
+      <c r="B875" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>301</v>
+      </c>
+      <c r="B876" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>301</v>
+      </c>
+      <c r="B877" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>301</v>
+      </c>
+      <c r="B878" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>301</v>
+      </c>
+      <c r="B879" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>301</v>
+      </c>
+      <c r="B880" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>301</v>
+      </c>
+      <c r="B881" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>301</v>
+      </c>
+      <c r="B882" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>301</v>
+      </c>
+      <c r="B885" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>301</v>
+      </c>
+      <c r="B886" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>301</v>
+      </c>
+      <c r="B887" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>301</v>
+      </c>
+      <c r="B888" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>301</v>
+      </c>
+      <c r="B889" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>301</v>
+      </c>
+      <c r="B890" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>301</v>
+      </c>
+      <c r="B891" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>301</v>
+      </c>
+      <c r="B892" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>301</v>
+      </c>
+      <c r="B893" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>301</v>
+      </c>
+      <c r="B896" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>301</v>
+      </c>
+      <c r="B897" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>301</v>
+      </c>
+      <c r="B898" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>301</v>
+      </c>
+      <c r="B899" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>301</v>
+      </c>
+      <c r="B900" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>301</v>
+      </c>
+      <c r="B901" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>301</v>
+      </c>
+      <c r="B902" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>301</v>
+      </c>
+      <c r="B903" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>301</v>
+      </c>
+      <c r="B904" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>301</v>
+      </c>
+      <c r="B907" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>301</v>
+      </c>
+      <c r="B908" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>301</v>
+      </c>
+      <c r="B909" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>301</v>
+      </c>
+      <c r="B910" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>301</v>
+      </c>
+      <c r="B911" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>301</v>
+      </c>
+      <c r="B912" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>301</v>
+      </c>
+      <c r="B913" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>301</v>
+      </c>
+      <c r="B914" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>301</v>
+      </c>
+      <c r="B915" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>301</v>
+      </c>
+      <c r="B918" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>301</v>
+      </c>
+      <c r="B919" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>301</v>
+      </c>
+      <c r="B920" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>301</v>
+      </c>
+      <c r="B921" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>301</v>
+      </c>
+      <c r="B922" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>301</v>
+      </c>
+      <c r="B923" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>301</v>
+      </c>
+      <c r="B926" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>301</v>
+      </c>
+      <c r="B927" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>301</v>
+      </c>
+      <c r="B928" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>301</v>
+      </c>
+      <c r="B929" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>301</v>
+      </c>
+      <c r="B930" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>301</v>
+      </c>
+      <c r="B931" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>301</v>
+      </c>
+      <c r="B933" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>301</v>
+      </c>
+      <c r="B934" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>301</v>
+      </c>
+      <c r="B935" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>301</v>
+      </c>
+      <c r="B936" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>301</v>
+      </c>
+      <c r="B937" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>301</v>
+      </c>
+      <c r="B938" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>301</v>
+      </c>
+      <c r="B939" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>301</v>
+      </c>
+      <c r="B942" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>301</v>
+      </c>
+      <c r="B943" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>301</v>
+      </c>
+      <c r="B944" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>301</v>
+      </c>
+      <c r="B945" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>301</v>
+      </c>
+      <c r="B946" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>301</v>
+      </c>
+      <c r="B947" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>301</v>
+      </c>
+      <c r="B950" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>301</v>
+      </c>
+      <c r="B951" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>301</v>
+      </c>
+      <c r="B952" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>301</v>
+      </c>
+      <c r="B953" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>301</v>
+      </c>
+      <c r="B954" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>301</v>
+      </c>
+      <c r="B955" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>301</v>
+      </c>
+      <c r="B958" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>301</v>
+      </c>
+      <c r="B959" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>301</v>
+      </c>
+      <c r="B960" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>301</v>
+      </c>
+      <c r="B961" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>301</v>
+      </c>
+      <c r="B962" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>301</v>
+      </c>
+      <c r="B963" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R932" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
